--- a/SUM MIX & PAN/SUM_MIXNPAN_BOM.xlsx
+++ b/SUM MIX & PAN/SUM_MIXNPAN_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Privat\Dropbox\Schematics\5_PCB_ORDERED\X_SUM_MIX&amp;PAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Privat\Dropbox\Schematics\5_PCB_ORDERED\D_SUM_MIX&amp;PAN\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA5ABF1-64B3-4E62-89D2-7CEF2BACDB23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAEC3AB-BAD9-46BE-83D7-A03188599AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="7530" xr2:uid="{11D1AC2C-C006-4451-BF62-B0C9A2653B16}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="226">
   <si>
     <t>Qty</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t xml:space="preserve">        Adjust OFS_VOL_1 to zero volts </t>
+  </si>
+  <si>
+    <t>Pusherman</t>
   </si>
 </sst>
 </file>
@@ -860,6 +863,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -867,12 +876,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1248,7 +1251,7 @@
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1263,17 +1266,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1960,10 +1963,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="11"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2325,8 +2328,8 @@
       <c r="E57" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>174</v>
+      <c r="F57" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2390,10 +2393,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2592,17 +2595,17 @@
       <c r="F72" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="11" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2617,7 +2620,7 @@
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="12" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2642,7 +2645,7 @@
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="12" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2667,7 +2670,7 @@
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="12" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2692,7 +2695,7 @@
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="12" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2717,7 +2720,7 @@
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="12" t="s">
         <v>206</v>
       </c>
     </row>

--- a/SUM MIX & PAN/SUM_MIXNPAN_BOM.xlsx
+++ b/SUM MIX & PAN/SUM_MIXNPAN_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Privat\Dropbox\Schematics\5_PCB_ORDERED\D_SUM_MIX&amp;PAN\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAEC3AB-BAD9-46BE-83D7-A03188599AB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A6C9D-F559-4568-A0DB-6CA554EBC1ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="7530" xr2:uid="{11D1AC2C-C006-4451-BF62-B0C9A2653B16}"/>
   </bookViews>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>U1, U12, U13, U14, U15, U16, U17</t>
-  </si>
-  <si>
-    <t>CA3280E</t>
   </si>
   <si>
     <t>DIL16</t>
@@ -736,6 +733,9 @@
   </si>
   <si>
     <t>Pusherman</t>
+  </si>
+  <si>
+    <t>CA3280E or AS3280</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:G132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1267,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>79</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>79</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>79</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>79</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>79</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>79</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,7 +1479,7 @@
         <v>79</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1539,7 +1539,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,7 +1559,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1579,7 +1579,7 @@
         <v>79</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>79</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1639,7 +1639,7 @@
         <v>79</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>79</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,7 +1679,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1739,7 +1739,7 @@
         <v>79</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1759,7 +1759,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>22</v>
@@ -1799,7 +1799,7 @@
         <v>23</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>67</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>66</v>
@@ -1836,7 +1836,7 @@
         <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>63</v>
@@ -1899,7 +1899,7 @@
         <v>75</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>72</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>80</v>
@@ -1939,7 +1939,7 @@
         <v>81</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>80</v>
@@ -1959,12 +1959,12 @@
         <v>84</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="5"/>
@@ -2009,7 +2009,7 @@
         <v>79</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.25">
@@ -2029,7 +2029,7 @@
         <v>79</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,7 +2049,7 @@
         <v>79</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,7 +2069,7 @@
         <v>79</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>79</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>79</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,7 +2129,7 @@
         <v>79</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,7 +2149,7 @@
         <v>79</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2169,7 +2169,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>28</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>104</v>
@@ -2209,7 +2209,7 @@
         <v>105</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2226,10 +2226,10 @@
         <v>108</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2269,7 +2269,7 @@
         <v>112</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
         <v>72</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2309,7 +2309,7 @@
         <v>75</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2317,19 +2317,19 @@
         <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2337,19 +2337,19 @@
         <v>6</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2357,19 +2357,19 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F59" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
         <v>11</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
@@ -2389,12 +2389,12 @@
         <v>81</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="5"/>
@@ -2427,19 +2427,19 @@
         <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="F64" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2447,19 +2447,19 @@
         <v>2</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="F65" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,19 +2467,19 @@
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2487,19 +2487,19 @@
         <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,19 +2507,19 @@
         <v>14</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="F68" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -2527,19 +2527,19 @@
         <v>16</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="F69" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>17</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>5</v>
@@ -2559,7 +2559,7 @@
         <v>84</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2567,13 +2567,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="8"/>
@@ -2583,20 +2583,20 @@
         <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -2606,147 +2606,147 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
